--- a/stat_tests/ya_target_data.xlsx
+++ b/stat_tests/ya_target_data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasminebassil/Documents/Emory/3_Research/Projects/NavAging_Paper/stat_tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F2408E21-FB62-6B4B-8FFA-308D99A8EC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3EF724D4-D750-F54E-9243-4A99206B885A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15760"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ya_target_data" sheetId="1" r:id="rId1"/>
@@ -756,7 +756,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1234,9 +1234,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1285,6 +1284,16 @@
   <dxfs count="6">
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1310,16 +1319,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1652,16 +1651,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -2609,7 +2608,7 @@
       <c r="F32">
         <v>-6.6849551253576998</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32">
         <v>1.9433985531946998E-9</v>
       </c>
       <c r="H32">
@@ -2639,7 +2638,7 @@
       <c r="F33">
         <v>-5.7204588807491303</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33">
         <v>4.68062214320497E-7</v>
       </c>
       <c r="H33">
@@ -2699,7 +2698,7 @@
       <c r="F35">
         <v>-7.81097439048279</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35">
         <v>4.6052184288214402E-10</v>
       </c>
       <c r="H35">
@@ -2729,7 +2728,7 @@
       <c r="F36">
         <v>-5.4579705908559699</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36">
         <v>1.9598125851061401E-6</v>
       </c>
       <c r="H36">
@@ -3389,7 +3388,7 @@
       <c r="F58">
         <v>4.8506465208308596</v>
       </c>
-      <c r="G58" s="1">
+      <c r="G58">
         <v>4.2871003295808E-5</v>
       </c>
       <c r="H58">
@@ -3419,7 +3418,7 @@
       <c r="F59">
         <v>10.9919422324125</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G59">
         <v>4.5977888163406502E-10</v>
       </c>
       <c r="H59">
@@ -3479,7 +3478,7 @@
       <c r="F61">
         <v>5.7282289387444996</v>
       </c>
-      <c r="G61" s="1">
+      <c r="G61">
         <v>4.4824715561553298E-7</v>
       </c>
       <c r="H61">
@@ -3509,7 +3508,7 @@
       <c r="F62">
         <v>7.8596197949068101</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G62">
         <v>4.6031445322114502E-10</v>
       </c>
       <c r="H62">
@@ -3539,7 +3538,7 @@
       <c r="F63">
         <v>10.0977164064823</v>
       </c>
-      <c r="G63" s="1">
+      <c r="G63">
         <v>4.59806193120471E-10</v>
       </c>
       <c r="H63">
@@ -3569,7 +3568,7 @@
       <c r="F64">
         <v>14.2336410231818</v>
       </c>
-      <c r="G64" s="1">
+      <c r="G64">
         <v>4.5973125306630901E-10</v>
       </c>
       <c r="H64">
@@ -3599,7 +3598,7 @@
       <c r="F65">
         <v>6.1412957115816296</v>
       </c>
-      <c r="G65" s="1">
+      <c r="G65">
         <v>4.2147979106843503E-8</v>
       </c>
       <c r="H65">
@@ -3719,7 +3718,7 @@
       <c r="F69">
         <v>5.2470698856514204</v>
       </c>
-      <c r="G69" s="1">
+      <c r="G69">
         <v>5.9360415318732202E-6</v>
       </c>
       <c r="H69">
@@ -3749,7 +3748,7 @@
       <c r="F70">
         <v>9.3829945023509698</v>
       </c>
-      <c r="G70" s="1">
+      <c r="G70">
         <v>4.5980730334349599E-10</v>
       </c>
       <c r="H70">
@@ -3779,7 +3778,7 @@
       <c r="F71">
         <v>-6.93825504669819</v>
       </c>
-      <c r="G71" s="1">
+      <c r="G71">
         <v>7.4936867822117403E-10</v>
       </c>
       <c r="H71">
@@ -3809,7 +3808,7 @@
       <c r="F72">
         <v>-5.2637132936680002</v>
       </c>
-      <c r="G72" s="1">
+      <c r="G72">
         <v>5.44658405554621E-6</v>
       </c>
       <c r="H72">
@@ -3989,7 +3988,7 @@
       <c r="F78">
         <v>6.0440292207679702</v>
       </c>
-      <c r="G78" s="1">
+      <c r="G78">
         <v>7.4300767760604498E-8</v>
       </c>
       <c r="H78">
@@ -4019,7 +4018,7 @@
       <c r="F79">
         <v>10.179953837467499</v>
       </c>
-      <c r="G79" s="1">
+      <c r="G79">
         <v>4.5980530494205099E-10</v>
       </c>
       <c r="H79">
@@ -4109,7 +4108,7 @@
       <c r="F82">
         <v>8.5054120844373404</v>
       </c>
-      <c r="G82" s="1">
+      <c r="G82">
         <v>4.5981307650322399E-10</v>
       </c>
       <c r="H82">
@@ -4169,7 +4168,7 @@
       <c r="F84">
         <v>6.3740212282750299</v>
       </c>
-      <c r="G84" s="1">
+      <c r="G84">
         <v>1.0750012657823E-8</v>
       </c>
       <c r="H84">
@@ -5069,7 +5068,7 @@
       <c r="F114">
         <v>5.7677666619591204</v>
       </c>
-      <c r="G114" s="1">
+      <c r="G114">
         <v>3.59417100304071E-7</v>
       </c>
       <c r="H114">
@@ -5099,7 +5098,7 @@
       <c r="F115">
         <v>5.6245678409856099</v>
       </c>
-      <c r="G115" s="1">
+      <c r="G115">
         <v>7.9503012750947701E-7</v>
       </c>
       <c r="H115">
@@ -5159,7 +5158,7 @@
       <c r="F117">
         <v>5.2334062432922996</v>
       </c>
-      <c r="G117" s="1">
+      <c r="G117">
         <v>6.3694223527699404E-6</v>
       </c>
       <c r="H117">
@@ -5249,7 +5248,7 @@
       <c r="F120">
         <v>6.5850074068942801</v>
       </c>
-      <c r="G120" s="1">
+      <c r="G120">
         <v>3.2478968403637501E-9</v>
       </c>
       <c r="H120">
@@ -5939,7 +5938,7 @@
       <c r="F143">
         <v>-10.5912080986399</v>
       </c>
-      <c r="G143" s="1">
+      <c r="G143">
         <v>4.5980241836218702E-10</v>
       </c>
       <c r="H143">
@@ -5969,7 +5968,7 @@
       <c r="F144">
         <v>-7.9412133795592004</v>
       </c>
-      <c r="G144" s="1">
+      <c r="G144">
         <v>4.6009285270542901E-10</v>
       </c>
       <c r="H144">
@@ -6059,7 +6058,7 @@
       <c r="F147">
         <v>-9.2762416384689796</v>
       </c>
-      <c r="G147" s="1">
+      <c r="G147">
         <v>4.5980863561112502E-10</v>
       </c>
       <c r="H147">
@@ -6089,7 +6088,7 @@
       <c r="F148">
         <v>-16.548641953192401</v>
       </c>
-      <c r="G148" s="1">
+      <c r="G148">
         <v>4.5973125306630901E-10</v>
       </c>
       <c r="H148">
@@ -6119,7 +6118,7 @@
       <c r="F149">
         <v>-6.5990821396555503</v>
       </c>
-      <c r="G149" s="1">
+      <c r="G149">
         <v>3.0120936855837499E-9</v>
       </c>
       <c r="H149">
@@ -6239,7 +6238,7 @@
       <c r="F153">
         <v>-5.2841156794846098</v>
       </c>
-      <c r="G153" s="1">
+      <c r="G153">
         <v>4.8996788747368603E-6</v>
       </c>
       <c r="H153">
@@ -6269,7 +6268,7 @@
       <c r="F154">
         <v>-12.556515994208</v>
       </c>
-      <c r="G154" s="1">
+      <c r="G154">
         <v>4.5973125306630901E-10</v>
       </c>
       <c r="H154">
@@ -6329,7 +6328,7 @@
       <c r="F156">
         <v>7.7412344357167804</v>
       </c>
-      <c r="G156" s="1">
+      <c r="G156">
         <v>4.6098191930354899E-10</v>
       </c>
       <c r="H156">
@@ -6359,7 +6358,7 @@
       <c r="F157">
         <v>6.2107233310590804</v>
       </c>
-      <c r="G157" s="1">
+      <c r="G157">
         <v>2.8049305877964099E-8</v>
       </c>
       <c r="H157">
@@ -6419,7 +6418,7 @@
       <c r="F159">
         <v>-5.9574338545524901</v>
       </c>
-      <c r="G159" s="1">
+      <c r="G159">
         <v>1.2250186487427999E-7</v>
       </c>
       <c r="H159">
@@ -6449,7 +6448,7 @@
       <c r="F160">
         <v>5.0912397166360499</v>
       </c>
-      <c r="G160" s="1">
+      <c r="G160">
         <v>1.3130716721487801E-5</v>
       </c>
       <c r="H160">
@@ -6539,7 +6538,7 @@
       <c r="F163">
         <v>-8.6074285736332108</v>
       </c>
-      <c r="G163" s="1">
+      <c r="G163">
         <v>4.59805638008959E-10</v>
       </c>
       <c r="H163">
@@ -6599,7 +6598,7 @@
       <c r="F165">
         <v>-6.4262679755458398</v>
       </c>
-      <c r="G165" s="1">
+      <c r="G165">
         <v>7.9315403134216905E-9</v>
       </c>
       <c r="H165">
@@ -6629,7 +6628,7 @@
       <c r="F166">
         <v>-13.6986682902693</v>
       </c>
-      <c r="G166" s="1">
+      <c r="G166">
         <v>4.5973125306630901E-10</v>
       </c>
       <c r="H166">
@@ -6659,7 +6658,7 @@
       <c r="F167">
         <v>-4.8957568708881398</v>
       </c>
-      <c r="G167" s="1">
+      <c r="G167">
         <v>3.4478113817071298E-5</v>
       </c>
       <c r="H167">
@@ -6689,7 +6688,7 @@
       <c r="F168">
         <v>-12.1681571856116</v>
       </c>
-      <c r="G168" s="1">
+      <c r="G168">
         <v>4.5973136408861101E-10</v>
       </c>
       <c r="H168">
@@ -6719,7 +6718,7 @@
       <c r="F169">
         <v>-7.2724003147234297</v>
       </c>
-      <c r="G169" s="1">
+      <c r="G169">
         <v>4.9090220777259198E-10</v>
       </c>
       <c r="H169">
@@ -6899,7 +6898,7 @@
       <c r="F175">
         <v>-5.77306206061251</v>
       </c>
-      <c r="G175" s="1">
+      <c r="G175">
         <v>3.4890795008735201E-7</v>
       </c>
       <c r="H175">
@@ -7503,7 +7502,7 @@
         <v>7.0484117391518301E-3</v>
       </c>
       <c r="H195">
-        <f t="shared" ref="H195:H198" si="3">G195*7</f>
+        <f t="shared" ref="H195:H197" si="3">G195*7</f>
         <v>4.9338882174062813E-2</v>
       </c>
       <c r="I195" t="s">
@@ -7572,16 +7571,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="between">
       <formula>0.05</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
       <formula>0.01</formula>
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>0.001</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0.001</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+      <formula>0.01</formula>
+      <formula>0.001</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
+      <formula>0.05</formula>
+      <formula>0.01</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
